--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_12-46.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_12-46.xlsx
@@ -71,6 +71,9 @@
     <t>10:1</t>
   </si>
   <si>
+    <t>DROSPIFEM 0.03/3MG 21 TABS.</t>
+  </si>
+  <si>
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
@@ -161,7 +164,28 @@
     <t>-1:0</t>
   </si>
   <si>
+    <t>سيتي بيبي رقم 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شامبو نونو 200ملل </t>
+  </si>
+  <si>
+    <t xml:space="preserve">عضاضه الجو </t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>فرشه شعر الجو</t>
+  </si>
+  <si>
     <t>كريم فاتيكا 125 مل</t>
+  </si>
+  <si>
+    <t>ليفه اطفال اشكال</t>
+  </si>
+  <si>
+    <t>5:0</t>
   </si>
   <si>
     <t>Thursday, 15 January, 2026 12:46 PM</t>
@@ -910,13 +934,13 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
@@ -936,13 +960,13 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
@@ -962,17 +986,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -988,17 +1012,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1014,13 +1038,13 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
@@ -1040,17 +1064,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1058,7 +1082,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1066,13 +1090,13 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
@@ -1092,13 +1116,13 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
@@ -1110,7 +1134,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1118,17 +1142,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1144,17 +1168,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1170,13 +1194,13 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
@@ -1196,13 +1220,13 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
@@ -1214,7 +1238,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1222,13 +1246,13 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
@@ -1240,7 +1264,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1248,13 +1272,13 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>149.5</v>
+        <v>35</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
@@ -1274,17 +1298,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>80</v>
+        <v>149.5</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1300,17 +1324,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1326,17 +1350,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1352,17 +1376,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1378,13 +1402,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1404,13 +1428,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1430,17 +1454,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>66.640000000000001</v>
+        <v>56</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1456,17 +1480,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>-375</v>
+        <v>66.640000000000001</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1482,17 +1506,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>14</v>
+        <v>-375</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1508,17 +1532,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1534,13 +1558,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1552,7 +1576,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1560,51 +1584,207 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="36" ht="25.5" customHeight="1">
-      <c r="K36" s="10">
-        <v>1153.1400000000001</v>
-      </c>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="11">
+    <row r="36" ht="24.75" customHeight="1">
+      <c r="A36" s="6">
+        <v>33</v>
+      </c>
+      <c t="s" r="B36" s="7">
         <v>51</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c t="s" r="F37" s="12">
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c t="s" r="H36" s="8">
+        <v>8</v>
+      </c>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="9">
+        <v>188.09999999999999</v>
+      </c>
+      <c r="M36" s="9"/>
+      <c t="s" r="N36" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="6">
+        <v>34</v>
+      </c>
+      <c t="s" r="B37" s="7">
         <v>52</v>
       </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="13"/>
-      <c t="s" r="I37" s="14">
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c t="s" r="H37" s="8">
+        <v>8</v>
+      </c>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="9">
+        <v>50</v>
+      </c>
+      <c r="M37" s="9"/>
+      <c t="s" r="N37" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" ht="25.5" customHeight="1">
+      <c r="A38" s="6">
+        <v>35</v>
+      </c>
+      <c t="s" r="B38" s="7">
         <v>53</v>
       </c>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c t="s" r="H38" s="8">
+        <v>54</v>
+      </c>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="9">
+        <v>15</v>
+      </c>
+      <c r="M38" s="9"/>
+      <c t="s" r="N38" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" ht="24.75" customHeight="1">
+      <c r="A39" s="6">
+        <v>36</v>
+      </c>
+      <c t="s" r="B39" s="7">
+        <v>55</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c t="s" r="H39" s="8">
+        <v>35</v>
+      </c>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="9">
+        <v>25</v>
+      </c>
+      <c r="M39" s="9"/>
+      <c t="s" r="N39" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" ht="25.5" customHeight="1">
+      <c r="A40" s="6">
+        <v>37</v>
+      </c>
+      <c t="s" r="B40" s="7">
+        <v>56</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c t="s" r="H40" s="8">
+        <v>13</v>
+      </c>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="9">
+        <v>50</v>
+      </c>
+      <c r="M40" s="9"/>
+      <c t="s" r="N40" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" ht="24.75" customHeight="1">
+      <c r="A41" s="6">
+        <v>38</v>
+      </c>
+      <c t="s" r="B41" s="7">
+        <v>57</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c t="s" r="H41" s="8">
+        <v>58</v>
+      </c>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="9">
+        <v>25</v>
+      </c>
+      <c r="M41" s="9"/>
+      <c t="s" r="N41" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" ht="26.25" customHeight="1">
+      <c r="K42" s="10">
+        <v>1543.24</v>
+      </c>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="11">
+        <v>59</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c t="s" r="F43" s="12">
+        <v>60</v>
+      </c>
+      <c r="G43" s="12"/>
+      <c r="H43" s="13"/>
+      <c t="s" r="I43" s="14">
+        <v>61</v>
+      </c>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="125">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1708,10 +1888,28 @@
     <mergeCell ref="B35:G35"/>
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="I37:N37"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="I43:N43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
